--- a/office_lighting_data_collection_protocol.xlsx
+++ b/office_lighting_data_collection_protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\TUe-shared\Y3\Master Thesis\0. Text_frameworks\4. Pre-final Report\Appendices\Finals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FADFBE-629D-4841-AE79-FAEB6D8DE9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625BE1A0-B79C-49EB-BAA2-E5B45CAC7C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C197D2FE-A658-4566-BB86-6856FE38EC9D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="146">
   <si>
     <t>Height</t>
   </si>
@@ -205,15 +205,6 @@
     <t xml:space="preserve">Light source 2 </t>
   </si>
   <si>
-    <t>Light source locations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Light source 1 </t>
-  </si>
-  <si>
-    <t>Light source 2</t>
-  </si>
-  <si>
     <t>Light source 3</t>
   </si>
   <si>
@@ -221,9 +212,6 @@
   </si>
   <si>
     <t>Light source 5</t>
-  </si>
-  <si>
-    <t>Light source 6</t>
   </si>
   <si>
     <t>Office types</t>
@@ -744,18 +732,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -764,6 +740,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -799,6 +781,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2327,7 +2315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078A5A25-F16A-4A04-9629-914FCDDF23A2}">
   <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" zoomScaleSheetLayoutView="30" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="30" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -2360,17 +2348,17 @@
     </row>
     <row r="2" spans="1:11" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28"/>
-      <c r="B2" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
+      <c r="B2" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
       <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2395,7 +2383,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="23"/>
       <c r="F4" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="23"/>
@@ -2412,7 +2400,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="23"/>
       <c r="F5" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="23"/>
@@ -2429,7 +2417,7 @@
       <c r="D6" s="11"/>
       <c r="E6" s="23"/>
       <c r="F6" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="23"/>
@@ -2444,7 +2432,7 @@
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
       <c r="F7" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="23"/>
@@ -2572,7 +2560,7 @@
       <c r="A16" s="28"/>
       <c r="B16" s="22"/>
       <c r="C16" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="23"/>
@@ -2645,10 +2633,10 @@
       <c r="A21" s="28"/>
       <c r="B21" s="22"/>
       <c r="C21" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
@@ -2662,10 +2650,10 @@
       <c r="A22" s="28"/>
       <c r="B22" s="22"/>
       <c r="C22" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
@@ -2679,10 +2667,10 @@
       <c r="A23" s="28"/>
       <c r="B23" s="22"/>
       <c r="C23" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
@@ -2699,7 +2687,7 @@
         <v>49</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
@@ -2711,14 +2699,14 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
@@ -2732,10 +2720,10 @@
       <c r="A26" s="28"/>
       <c r="B26" s="22"/>
       <c r="C26" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
@@ -2749,10 +2737,10 @@
       <c r="A27" s="28"/>
       <c r="B27" s="22"/>
       <c r="C27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>91</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
@@ -2765,10 +2753,10 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
       <c r="B28" s="22"/>
-      <c r="C28" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="D28" s="39"/>
+      <c r="C28" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="37"/>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
@@ -2780,8 +2768,8 @@
     <row r="29" spans="1:11" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="28"/>
       <c r="B29" s="22"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="41"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
@@ -2807,25 +2795,25 @@
       <c r="A31" s="28"/>
       <c r="B31" s="22"/>
       <c r="C31" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="H31" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J31" s="24"/>
       <c r="K31" s="28"/>
@@ -2834,7 +2822,7 @@
       <c r="A32" s="28"/>
       <c r="B32" s="22"/>
       <c r="C32" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="21"/>
@@ -2907,7 +2895,7 @@
       <c r="A37" s="28"/>
       <c r="B37" s="22"/>
       <c r="C37" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>52</v>
@@ -2922,10 +2910,10 @@
         <v>35</v>
       </c>
       <c r="H37" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J37" s="24"/>
       <c r="K37" s="28"/>
@@ -3007,25 +2995,25 @@
       <c r="A43" s="28"/>
       <c r="B43" s="22"/>
       <c r="C43" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J43" s="24"/>
       <c r="K43" s="28"/>
@@ -3034,7 +3022,7 @@
       <c r="A44" s="28"/>
       <c r="B44" s="22"/>
       <c r="C44" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D44" s="20"/>
       <c r="E44" s="21"/>
@@ -3049,7 +3037,7 @@
       <c r="A45" s="28"/>
       <c r="B45" s="22"/>
       <c r="C45" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D45" s="20"/>
       <c r="E45" s="21"/>
@@ -3064,7 +3052,7 @@
       <c r="A46" s="28"/>
       <c r="B46" s="22"/>
       <c r="C46" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D46" s="20"/>
       <c r="E46" s="21"/>
@@ -3079,7 +3067,7 @@
       <c r="A47" s="28"/>
       <c r="B47" s="22"/>
       <c r="C47" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D47" s="20"/>
       <c r="E47" s="21"/>
@@ -3094,7 +3082,7 @@
       <c r="A48" s="28"/>
       <c r="B48" s="22"/>
       <c r="C48" s="18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D48" s="20"/>
       <c r="E48" s="21"/>
@@ -3137,16 +3125,16 @@
       <c r="A51" s="28"/>
       <c r="B51" s="22"/>
       <c r="C51" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D51" s="3"/>
-      <c r="E51" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="47"/>
+      <c r="E51" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="45"/>
       <c r="J51" s="24"/>
       <c r="K51" s="28"/>
     </row>
@@ -3157,11 +3145,11 @@
         <v>22</v>
       </c>
       <c r="D52" s="20"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="43"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="41"/>
       <c r="J52" s="24"/>
       <c r="K52" s="28"/>
     </row>
@@ -3172,11 +3160,11 @@
         <v>23</v>
       </c>
       <c r="D53" s="20"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="43"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="41"/>
       <c r="J53" s="24"/>
       <c r="K53" s="28"/>
     </row>
@@ -3187,11 +3175,11 @@
         <v>24</v>
       </c>
       <c r="D54" s="20"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="43"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="41"/>
       <c r="J54" s="24"/>
       <c r="K54" s="28"/>
     </row>
@@ -3202,11 +3190,11 @@
         <v>25</v>
       </c>
       <c r="D55" s="20"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="43"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="41"/>
       <c r="J55" s="24"/>
       <c r="K55" s="28"/>
     </row>
@@ -3217,11 +3205,11 @@
         <v>21</v>
       </c>
       <c r="D56" s="14"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="45"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="43"/>
       <c r="J56" s="24"/>
       <c r="K56" s="28"/>
     </row>
@@ -3242,16 +3230,16 @@
       <c r="A58" s="28"/>
       <c r="B58" s="22"/>
       <c r="C58" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D58" s="3"/>
-      <c r="E58" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="49"/>
+      <c r="E58" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="47"/>
       <c r="J58" s="24"/>
       <c r="K58" s="28"/>
     </row>
@@ -3262,11 +3250,11 @@
         <v>26</v>
       </c>
       <c r="D59" s="20"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="32"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="35"/>
       <c r="J59" s="24"/>
       <c r="K59" s="28"/>
     </row>
@@ -3274,7 +3262,7 @@
       <c r="A60" s="28"/>
       <c r="B60" s="22"/>
       <c r="C60" s="18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D60" s="21"/>
       <c r="E60" s="21"/>
@@ -3292,11 +3280,11 @@
         <v>27</v>
       </c>
       <c r="D61" s="20"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="32"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="35"/>
       <c r="J61" s="24"/>
       <c r="K61" s="28"/>
     </row>
@@ -3304,7 +3292,7 @@
       <c r="A62" s="28"/>
       <c r="B62" s="22"/>
       <c r="C62" s="19" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
@@ -3332,7 +3320,7 @@
       <c r="A64" s="28"/>
       <c r="B64" s="22"/>
       <c r="C64" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>53</v>
@@ -3341,16 +3329,16 @@
         <v>54</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J64" s="24"/>
       <c r="K64" s="28"/>
@@ -3419,7 +3407,7 @@
       <c r="A69" s="28"/>
       <c r="B69" s="22"/>
       <c r="C69" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D69" s="20"/>
       <c r="E69" s="21"/>
@@ -3494,7 +3482,7 @@
       <c r="A74" s="28"/>
       <c r="B74" s="22"/>
       <c r="C74" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D74" s="14"/>
       <c r="E74" s="15"/>
@@ -3522,16 +3510,16 @@
       <c r="A76" s="28"/>
       <c r="B76" s="22"/>
       <c r="C76" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D76" s="3"/>
-      <c r="E76" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="F76" s="48"/>
-      <c r="G76" s="48"/>
-      <c r="H76" s="48"/>
-      <c r="I76" s="49"/>
+      <c r="E76" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="F76" s="46"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="47"/>
       <c r="J76" s="24"/>
       <c r="K76" s="28"/>
     </row>
@@ -3542,11 +3530,11 @@
         <v>16</v>
       </c>
       <c r="D77" s="20"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="32"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="35"/>
       <c r="J77" s="24"/>
       <c r="K77" s="28"/>
     </row>
@@ -3557,11 +3545,11 @@
         <v>17</v>
       </c>
       <c r="D78" s="20"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="32"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="35"/>
       <c r="J78" s="24"/>
       <c r="K78" s="28"/>
     </row>
@@ -3572,11 +3560,11 @@
         <v>18</v>
       </c>
       <c r="D79" s="20"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="32"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="35"/>
       <c r="J79" s="24"/>
       <c r="K79" s="28"/>
     </row>
@@ -3587,11 +3575,11 @@
         <v>19</v>
       </c>
       <c r="D80" s="20"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="32"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="35"/>
       <c r="J80" s="24"/>
       <c r="K80" s="28"/>
     </row>
@@ -3602,11 +3590,11 @@
         <v>20</v>
       </c>
       <c r="D81" s="20"/>
-      <c r="E81" s="31"/>
-      <c r="F81" s="31"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="32"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="35"/>
       <c r="J81" s="24"/>
       <c r="K81" s="28"/>
     </row>
@@ -3617,11 +3605,11 @@
         <v>21</v>
       </c>
       <c r="D82" s="14"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33"/>
-      <c r="I82" s="34"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="49"/>
       <c r="J82" s="24"/>
       <c r="K82" s="28"/>
     </row>
@@ -3666,6 +3654,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E78:I78"/>
+    <mergeCell ref="E79:I79"/>
+    <mergeCell ref="E80:I80"/>
+    <mergeCell ref="E81:I81"/>
+    <mergeCell ref="E82:I82"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="E77:I77"/>
     <mergeCell ref="C28:D29"/>
@@ -3679,11 +3672,6 @@
     <mergeCell ref="E51:I51"/>
     <mergeCell ref="E58:I58"/>
     <mergeCell ref="E76:I76"/>
-    <mergeCell ref="E78:I78"/>
-    <mergeCell ref="E79:I79"/>
-    <mergeCell ref="E80:I80"/>
-    <mergeCell ref="E81:I81"/>
-    <mergeCell ref="E82:I82"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
@@ -3765,10 +3753,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49896EB2-F865-4D6D-8575-D781EC29A46D}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3778,7 +3766,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3877,48 +3865,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>61</v>
-      </c>
-    </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="zj/ipuHeA2MFbzGf6zZUXUAt7zLNIuhW+NnG0Z5TneaYJpdTj/TxSmwEUxdDUiQVJ92Xe8otV0XcCnYkMAp05g==" saltValue="8TcFQNxNoHVPzfnnXQFjmg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3943,70 +3891,70 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
         <v>62</v>
       </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
@@ -4014,7 +3962,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -4022,45 +3970,45 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" t="s">
         <v>125</v>
       </c>
-      <c r="C12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="I12" t="s">
         <v>126</v>
-      </c>
-      <c r="F12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G12" t="s">
-        <v>128</v>
-      </c>
-      <c r="H12" t="s">
-        <v>129</v>
-      </c>
-      <c r="I12" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -4068,16 +4016,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -4085,41 +4033,42 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" t="s">
         <v>141</v>
       </c>
-      <c r="B17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" t="s">
-        <v>146</v>
-      </c>
-      <c r="D17" t="s">
-        <v>143</v>
-      </c>
-      <c r="E17" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" t="s">
-        <v>145</v>
-      </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="1adom5hH4lNYOZBUJRA7TAWWWIB8ybtGCf1gQPSfNyHbEVCbAhFreqQdjYerl8b8r1vuJrUrlhzCO9OnB2IEeA==" saltValue="VvYc2JaukI3f8DAtORiLJw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/office_lighting_data_collection_protocol.xlsx
+++ b/office_lighting_data_collection_protocol.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\TUe-shared\Y3\Master Thesis\0. Text_frameworks\4. Pre-final Report\Appendices\Finals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625BE1A0-B79C-49EB-BAA2-E5B45CAC7C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDD73A4-CF67-4EB7-B59E-9A34119BF339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C197D2FE-A658-4566-BB86-6856FE38EC9D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C197D2FE-A658-4566-BB86-6856FE38EC9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Collection Template" sheetId="1" r:id="rId1"/>
-    <sheet name="Master Floorplan" sheetId="3" r:id="rId2"/>
-    <sheet name="Master Dropdowns" sheetId="5" r:id="rId3"/>
+    <sheet name="External Daylight Calculator" sheetId="6" r:id="rId2"/>
+    <sheet name="Master Floorplan" sheetId="3" r:id="rId3"/>
+    <sheet name="Master Dropdowns" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="180">
   <si>
     <t>Height</t>
   </si>
@@ -476,13 +477,115 @@
   </si>
   <si>
     <t>Office Lighting Data Collection Template</t>
+  </si>
+  <si>
+    <t>Calculated: =Diffuse Irradiance * Transfer Function</t>
+  </si>
+  <si>
+    <t>Diffuse Illuminance</t>
+  </si>
+  <si>
+    <t>Calculated: =Global Irradiance * Transfer Function</t>
+  </si>
+  <si>
+    <t>Global Illuminance</t>
+  </si>
+  <si>
+    <t>Calculated: =B8 + B9*W + B10*COS(Z) + B11*LN(Δ)</t>
+  </si>
+  <si>
+    <t>Transfer Function</t>
+  </si>
+  <si>
+    <t>Calculated: =(B4 * B7) / B13</t>
+  </si>
+  <si>
+    <t>Δ</t>
+  </si>
+  <si>
+    <t>Calculated: =EXP(0.07 * B5 - 0.075)</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Calculated: =B6*PI()/180</t>
+  </si>
+  <si>
+    <t>Z (radians)</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>I_o (W/m²)</t>
+  </si>
+  <si>
+    <t>κ</t>
+  </si>
+  <si>
+    <t>Input coefficient</t>
+  </si>
+  <si>
+    <t>d_i</t>
+  </si>
+  <si>
+    <t>c_i</t>
+  </si>
+  <si>
+    <t>b_i</t>
+  </si>
+  <si>
+    <t>a_i</t>
+  </si>
+  <si>
+    <t>Input value</t>
+  </si>
+  <si>
+    <t>m (relative optical airmass)</t>
+  </si>
+  <si>
+    <t>Z (°)</t>
+  </si>
+  <si>
+    <t>Td (°C)</t>
+  </si>
+  <si>
+    <t>Direct Irradiance (Dh) (W/m²)</t>
+  </si>
+  <si>
+    <t>Diffuse Irradiance (W/m²)</t>
+  </si>
+  <si>
+    <t>Global Irradiance (W/m²)</t>
+  </si>
+  <si>
+    <t>Formula / Note</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>External Daylight Calculator</t>
+  </si>
+  <si>
+    <t>Calculations</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameters to fill in </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,8 +629,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,8 +680,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -696,11 +812,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -732,6 +885,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -740,12 +905,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -783,12 +942,71 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2315,13 +2533,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078A5A25-F16A-4A04-9629-914FCDDF23A2}">
   <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="30" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="30" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.77734375" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" customWidth="1"/>
     <col min="3" max="3" width="37.109375" customWidth="1"/>
     <col min="4" max="4" width="21.44140625" customWidth="1"/>
     <col min="5" max="5" width="23.77734375" customWidth="1"/>
@@ -2348,17 +2566,17 @@
     </row>
     <row r="2" spans="1:11" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28"/>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
       <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2753,10 +2971,10 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
       <c r="B28" s="22"/>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="D28" s="37"/>
+      <c r="D28" s="39"/>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
@@ -2768,8 +2986,8 @@
     <row r="29" spans="1:11" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="28"/>
       <c r="B29" s="22"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="39"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41"/>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
@@ -3128,13 +3346,13 @@
         <v>97</v>
       </c>
       <c r="D51" s="3"/>
-      <c r="E51" s="44" t="s">
+      <c r="E51" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="45"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="47"/>
       <c r="J51" s="24"/>
       <c r="K51" s="28"/>
     </row>
@@ -3145,11 +3363,11 @@
         <v>22</v>
       </c>
       <c r="D52" s="20"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="41"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="43"/>
       <c r="J52" s="24"/>
       <c r="K52" s="28"/>
     </row>
@@ -3160,11 +3378,11 @@
         <v>23</v>
       </c>
       <c r="D53" s="20"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="41"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="43"/>
       <c r="J53" s="24"/>
       <c r="K53" s="28"/>
     </row>
@@ -3175,11 +3393,11 @@
         <v>24</v>
       </c>
       <c r="D54" s="20"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="41"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="43"/>
       <c r="J54" s="24"/>
       <c r="K54" s="28"/>
     </row>
@@ -3190,11 +3408,11 @@
         <v>25</v>
       </c>
       <c r="D55" s="20"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="41"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="43"/>
       <c r="J55" s="24"/>
       <c r="K55" s="28"/>
     </row>
@@ -3205,11 +3423,11 @@
         <v>21</v>
       </c>
       <c r="D56" s="14"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="43"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="45"/>
       <c r="J56" s="24"/>
       <c r="K56" s="28"/>
     </row>
@@ -3233,13 +3451,13 @@
         <v>102</v>
       </c>
       <c r="D58" s="3"/>
-      <c r="E58" s="46" t="s">
+      <c r="E58" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="47"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="49"/>
       <c r="J58" s="24"/>
       <c r="K58" s="28"/>
     </row>
@@ -3250,11 +3468,11 @@
         <v>26</v>
       </c>
       <c r="D59" s="20"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="35"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="32"/>
       <c r="J59" s="24"/>
       <c r="K59" s="28"/>
     </row>
@@ -3280,11 +3498,11 @@
         <v>27</v>
       </c>
       <c r="D61" s="20"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="35"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="32"/>
       <c r="J61" s="24"/>
       <c r="K61" s="28"/>
     </row>
@@ -3513,13 +3731,13 @@
         <v>101</v>
       </c>
       <c r="D76" s="3"/>
-      <c r="E76" s="46" t="s">
+      <c r="E76" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="F76" s="46"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="46"/>
-      <c r="I76" s="47"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="49"/>
       <c r="J76" s="24"/>
       <c r="K76" s="28"/>
     </row>
@@ -3530,11 +3748,11 @@
         <v>16</v>
       </c>
       <c r="D77" s="20"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="35"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="32"/>
       <c r="J77" s="24"/>
       <c r="K77" s="28"/>
     </row>
@@ -3545,11 +3763,11 @@
         <v>17</v>
       </c>
       <c r="D78" s="20"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="35"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="32"/>
       <c r="J78" s="24"/>
       <c r="K78" s="28"/>
     </row>
@@ -3560,11 +3778,11 @@
         <v>18</v>
       </c>
       <c r="D79" s="20"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="35"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="32"/>
       <c r="J79" s="24"/>
       <c r="K79" s="28"/>
     </row>
@@ -3575,11 +3793,11 @@
         <v>19</v>
       </c>
       <c r="D80" s="20"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="35"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="32"/>
       <c r="J80" s="24"/>
       <c r="K80" s="28"/>
     </row>
@@ -3590,11 +3808,11 @@
         <v>20</v>
       </c>
       <c r="D81" s="20"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="35"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="32"/>
       <c r="J81" s="24"/>
       <c r="K81" s="28"/>
     </row>
@@ -3605,11 +3823,11 @@
         <v>21</v>
       </c>
       <c r="D82" s="14"/>
-      <c r="E82" s="48"/>
-      <c r="F82" s="48"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="49"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="34"/>
       <c r="J82" s="24"/>
       <c r="K82" s="28"/>
     </row>
@@ -3654,11 +3872,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E78:I78"/>
-    <mergeCell ref="E79:I79"/>
-    <mergeCell ref="E80:I80"/>
-    <mergeCell ref="E81:I81"/>
-    <mergeCell ref="E82:I82"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="E77:I77"/>
     <mergeCell ref="C28:D29"/>
@@ -3672,6 +3885,11 @@
     <mergeCell ref="E51:I51"/>
     <mergeCell ref="E58:I58"/>
     <mergeCell ref="E76:I76"/>
+    <mergeCell ref="E78:I78"/>
+    <mergeCell ref="E79:I79"/>
+    <mergeCell ref="E80:I80"/>
+    <mergeCell ref="E81:I81"/>
+    <mergeCell ref="E82:I82"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
@@ -3752,6 +3970,383 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0203A16-8F1F-4623-9971-B46BCB5DE5A9}">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="47.21875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" customWidth="1"/>
+    <col min="5" max="5" width="50.21875" customWidth="1"/>
+    <col min="7" max="7" width="30.88671875" style="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" s="28" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62"/>
+    </row>
+    <row r="3" spans="2:9" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="56"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="57"/>
+    </row>
+    <row r="4" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="22"/>
+      <c r="C4" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="85"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="22"/>
+      <c r="C5" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="22"/>
+      <c r="C6" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="69"/>
+      <c r="E6" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="24"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="22"/>
+      <c r="C7" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="H7" s="90"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="22"/>
+      <c r="C8" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="51"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="22"/>
+      <c r="C9" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="51"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="22"/>
+      <c r="C10" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="51"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="22"/>
+      <c r="C11" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="51"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="22"/>
+      <c r="C12" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="51"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="22"/>
+      <c r="C13" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="51"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="22"/>
+      <c r="C14" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="51"/>
+    </row>
+    <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="22"/>
+      <c r="C15" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+    </row>
+    <row r="16" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="22"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="24"/>
+    </row>
+    <row r="17" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="22"/>
+      <c r="C17" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="82"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="24"/>
+    </row>
+    <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="22"/>
+      <c r="C18" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="24"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="22"/>
+      <c r="C19" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="77">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="E19" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" s="24"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="22"/>
+      <c r="C20" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="55">
+        <v>1367</v>
+      </c>
+      <c r="E20" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" s="24"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="22"/>
+      <c r="C21" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="55">
+        <f>D10*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="24"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="22"/>
+      <c r="C22" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="55">
+        <f>EXP(0.07 * D9 - 0.075)</f>
+        <v>0.92774348632855286</v>
+      </c>
+      <c r="E22" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" s="24"/>
+    </row>
+    <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="22"/>
+      <c r="C23" s="78" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="79">
+        <f>(D8 * D11) / D20</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="24"/>
+    </row>
+    <row r="24" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="22"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="24"/>
+    </row>
+    <row r="25" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="22"/>
+      <c r="C25" s="74" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="80"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="24"/>
+    </row>
+    <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="22"/>
+      <c r="C26" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" s="24"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="22"/>
+      <c r="C27" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="5" t="e">
+        <f>D12 + D13*D22 + D14*COS(D21) + D15*LN(D23)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E27" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" s="24"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="22"/>
+      <c r="C28" s="72" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="52" t="e">
+        <f>D6 * D27</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E28" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="24"/>
+    </row>
+    <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="22"/>
+      <c r="C29" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="53" t="e">
+        <f>D7 * D27</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E29" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="24"/>
+    </row>
+    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
+    </row>
+    <row r="31" spans="2:6" s="28" customFormat="1" ht="192.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C17:E17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49896EB2-F865-4D6D-8575-D781EC29A46D}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -3872,7 +4467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DB72F9-9DED-48F8-B1B8-BA591601D7CC}">
   <dimension ref="A1:I17"/>
   <sheetViews>
